--- a/541982.xlsx
+++ b/541982.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BAF5410D-3E64-5C47-8AC5-EBA2CDBB4BB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72177650-2211-5E41-A49E-E905B24F6848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9340" yWindow="2740" windowWidth="27840" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
+    <workbookView xWindow="2400" yWindow="1540" windowWidth="27840" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -79,6 +79,10 @@
   </si>
   <si>
     <t>Accuracy(541982)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+ lag1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -197,29 +201,29 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -535,10 +539,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36BF8C9-A0ED-864E-A304-FEEF119C4B5F}">
-  <dimension ref="A1:C10"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -548,106 +552,117 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="17" thickBot="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+      <c r="A2" s="8"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="3">
+      <c r="A3" s="1">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="6">
+      <c r="C3" s="4">
         <v>-1383.22188829421</v>
       </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="4">
+      <c r="A4" s="2">
         <v>2</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="5">
         <v>8.4810702840791308</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>3</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="5">
         <v>64.940395326255299</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>4</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6" s="5">
+        <v>71.002143130205795</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="C6" s="7">
+      <c r="B7" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5">
         <v>-390.31367793150099</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="4">
-        <v>5</v>
-      </c>
-      <c r="B7" s="4" t="s">
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="C7" s="7">
+      <c r="B8" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="5">
         <v>64.940395326255299</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="4">
-        <v>6</v>
-      </c>
-      <c r="B8" s="4" t="s">
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
         <v>7</v>
       </c>
-      <c r="C8" s="7">
+      <c r="B9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="5">
         <v>59.5861883653508</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="4">
-        <v>7</v>
-      </c>
-      <c r="B9" s="4" t="s">
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
         <v>8</v>
       </c>
-      <c r="C9" s="7">
+      <c r="B10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="5">
         <v>25.156157702698899</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1">
-      <c r="A10" s="5">
-        <v>8</v>
-      </c>
-      <c r="B10" s="5" t="s">
+    <row r="11" spans="1:3" ht="17" thickBot="1">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
-      <c r="C10" s="8">
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6">
         <v>51.183324516805101</v>
       </c>
     </row>

--- a/541982.xlsx
+++ b/541982.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72177650-2211-5E41-A49E-E905B24F6848}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D082B602-9CDC-3244-B14C-89885CCDDFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2400" yWindow="1540" windowWidth="27840" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
+    <workbookView xWindow="15200" yWindow="6620" windowWidth="15020" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -83,6 +83,10 @@
   </si>
   <si>
     <t>Lasso Regression+normalization+ lag1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Lasso Regression+normalization+ lag1+PCA(2)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -539,15 +543,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36BF8C9-A0ED-864E-A304-FEEF119C4B5F}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="40.83203125" customWidth="1"/>
+    <col min="2" max="2" width="44" customWidth="1"/>
     <col min="3" max="3" width="23.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -616,10 +620,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C7" s="5">
-        <v>-390.31367793150099</v>
+        <v>81.644887362295094</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -627,10 +631,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C8" s="5">
-        <v>64.940395326255299</v>
+        <v>-390.31367793150099</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -638,10 +642,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" s="5">
-        <v>59.5861883653508</v>
+        <v>64.940395326255299</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -649,20 +653,31 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="5">
+        <v>59.5861883653508</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="5">
+      <c r="C11" s="5">
         <v>25.156157702698899</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1">
-      <c r="A11" s="3">
+    <row r="12" spans="1:3" ht="17" thickBot="1">
+      <c r="A12" s="3">
+        <v>10</v>
+      </c>
+      <c r="B12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="6">
+      <c r="C12" s="6">
         <v>51.183324516805101</v>
       </c>
     </row>

--- a/541982.xlsx
+++ b/541982.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D082B602-9CDC-3244-B14C-89885CCDDFBC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18CF45-6E20-7743-B209-81EDFEFB4F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15200" yWindow="6620" windowWidth="15020" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
+    <workbookView xWindow="14160" yWindow="5440" windowWidth="15020" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -87,6 +87,10 @@
   </si>
   <si>
     <t>Lasso Regression+normalization+ lag1+PCA(2)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>`</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -543,10 +547,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36BF8C9-A0ED-864E-A304-FEEF119C4B5F}">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -623,7 +627,7 @@
         <v>12</v>
       </c>
       <c r="C7" s="5">
-        <v>81.644887362295094</v>
+        <v>83.519033481304604</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -679,6 +683,11 @@
       </c>
       <c r="C12" s="6">
         <v>51.183324516805101</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/541982.xlsx
+++ b/541982.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE18CF45-6E20-7743-B209-81EDFEFB4F78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3CE96C-333C-A44D-AAE6-71F82C5F1031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="5440" windowWidth="15020" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
+    <workbookView xWindow="14160" yWindow="1460" windowWidth="15020" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,10 @@
   </si>
   <si>
     <t>`</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Decision Tree Regression+feature selection</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -547,10 +551,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36BF8C9-A0ED-864E-A304-FEEF119C4B5F}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -674,19 +678,30 @@
         <v>25.156157702698899</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1">
-      <c r="A12" s="3">
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
         <v>10</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="5">
+        <v>78.441738356474701</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="17" thickBot="1">
+      <c r="A13" s="3">
+        <v>11</v>
+      </c>
+      <c r="B13" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C13" s="6">
         <v>51.183324516805101</v>
       </c>
     </row>
-    <row r="17" spans="2:2">
-      <c r="B17" t="s">
+    <row r="18" spans="2:2">
+      <c r="B18" t="s">
         <v>13</v>
       </c>
     </row>

--- a/541982.xlsx
+++ b/541982.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liuhongkun/PycharmProjects/6882-data-mining/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD3CE96C-333C-A44D-AAE6-71F82C5F1031}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{348797E2-F0B3-3346-BF39-799E5DB8B572}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14160" yWindow="1460" windowWidth="15020" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
+    <workbookView xWindow="580" yWindow="1140" windowWidth="15020" windowHeight="16740" xr2:uid="{E576AFF1-E8AF-E149-9C19-58E62C9F99BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,10 @@
   </si>
   <si>
     <t>Decision Tree Regression+feature selection</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Linear Regression+PCA(25)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -551,10 +555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F36BF8C9-A0ED-864E-A304-FEEF119C4B5F}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -595,10 +599,10 @@
         <v>2</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="C4" s="5">
-        <v>8.4810702840791308</v>
+        <v>70.178367723452098</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -606,10 +610,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>64.940395326255299</v>
+        <v>8.4810702840791308</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -617,10 +621,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="C6" s="5">
-        <v>71.002143130205795</v>
+        <v>64.940395326255299</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -628,10 +632,10 @@
         <v>5</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C7" s="5">
-        <v>83.519033481304604</v>
+        <v>71.002143130205795</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -639,10 +643,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C8" s="5">
-        <v>-390.31367793150099</v>
+        <v>83.519033481304604</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -650,10 +654,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C9" s="5">
-        <v>64.940395326255299</v>
+        <v>-390.31367793150099</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -661,10 +665,10 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C10" s="5">
-        <v>59.5861883653508</v>
+        <v>64.940395326255299</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -672,10 +676,10 @@
         <v>9</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C11" s="5">
-        <v>25.156157702698899</v>
+        <v>59.5861883653508</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -683,25 +687,36 @@
         <v>10</v>
       </c>
       <c r="B12" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="5">
+        <v>25.156157702698899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C12" s="5">
+      <c r="C13" s="5">
         <v>78.441738356474701</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1">
-      <c r="A13" s="3">
-        <v>11</v>
-      </c>
-      <c r="B13" s="3" t="s">
+    <row r="14" spans="1:3" ht="17" thickBot="1">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C14" s="6">
         <v>51.183324516805101</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" t="s">
+    <row r="19" spans="2:2">
+      <c r="B19" t="s">
         <v>13</v>
       </c>
     </row>
